--- a/assets/2019/2_Magnetics/RawData_2019.xlsx
+++ b/assets/2019/2_Magnetics/RawData_2019.xlsx
@@ -130,10 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -142,16 +139,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1843,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,33 +1858,33 @@
       </c>
     </row>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="6">
         <v>1</v>
       </c>
@@ -1900,11 +1900,11 @@
       <c r="I3" s="6">
         <v>5</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>1</v>
       </c>
       <c r="C4" s="3">
@@ -1932,7 +1932,7 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="3">
         <v>0.64513888888888882</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="3">
         <v>0.64583333333333337</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>2</v>
       </c>
       <c r="C7" s="3">
@@ -2012,7 +2012,7 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="3">
         <v>0.64861111111111114</v>
       </c>
@@ -2038,7 +2038,7 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3">
         <v>0.64930555555555558</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>3</v>
       </c>
       <c r="C10" s="3">
@@ -2092,7 +2092,7 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3">
         <v>0.65833333333333333</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3">
         <v>0.65902777777777777</v>
       </c>
@@ -2144,7 +2144,7 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>4</v>
       </c>
       <c r="C13" s="3">
@@ -2172,7 +2172,7 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="3">
         <v>0.67152777777777783</v>
       </c>
@@ -2198,7 +2198,7 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="3">
         <v>0.67152777777777783</v>
       </c>
@@ -2224,7 +2224,7 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="3">
         <v>0.67222222222222217</v>
       </c>
@@ -2250,7 +2250,7 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>5</v>
       </c>
       <c r="C17" s="3">
@@ -2278,7 +2278,7 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="3">
         <v>0.68611111111111101</v>
       </c>
@@ -2304,7 +2304,7 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="3">
         <v>0.6875</v>
       </c>
@@ -2330,7 +2330,7 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>6</v>
       </c>
       <c r="C20" s="3">
@@ -2358,7 +2358,7 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="3">
         <v>0.69166666666666676</v>
       </c>
@@ -2384,7 +2384,7 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="3">
         <v>0.69236111111111109</v>
       </c>
@@ -2410,7 +2410,7 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>7</v>
       </c>
       <c r="C23" s="3">
@@ -2438,7 +2438,7 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="3">
         <v>0.69791666666666663</v>
       </c>
@@ -2464,7 +2464,7 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="3"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2476,7 +2476,7 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>8</v>
       </c>
       <c r="C26" s="3"/>
@@ -2490,7 +2490,7 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2502,7 +2502,7 @@
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="3"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2514,7 +2514,7 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>9</v>
       </c>
       <c r="C29" s="3"/>
@@ -2528,7 +2528,7 @@
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="3"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2540,7 +2540,7 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="13"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="3"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2557,35 +2557,35 @@
       </c>
     </row>
     <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15" t="s">
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J34" s="15" t="s">
+      <c r="J34" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K34" s="15" t="s">
+      <c r="K34" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L34" s="15" t="s">
+      <c r="L34" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="13"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="4">
         <v>1</v>
       </c>
@@ -2601,13 +2601,13 @@
       <c r="H35" s="4">
         <v>5</v>
       </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
     </row>
     <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="13">
+      <c r="B36" s="12">
         <v>1</v>
       </c>
       <c r="C36" s="3">
@@ -2630,11 +2630,11 @@
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
     </row>
     <row r="37" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="13"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="3">
         <v>0.64097222222222217</v>
       </c>
@@ -2655,11 +2655,11 @@
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
     </row>
     <row r="38" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>2</v>
       </c>
       <c r="C38" s="3">
@@ -2682,11 +2682,11 @@
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
     </row>
     <row r="39" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="13"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="3">
         <v>0.6479166666666667</v>
       </c>
@@ -2707,11 +2707,11 @@
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
     </row>
     <row r="40" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <v>3</v>
       </c>
       <c r="C40" s="3">
@@ -2734,11 +2734,11 @@
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
     </row>
     <row r="41" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="13"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="3">
         <v>0.66388888888888886</v>
       </c>
@@ -2759,11 +2759,11 @@
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
     </row>
     <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>4</v>
       </c>
       <c r="C42" s="3">
@@ -2786,11 +2786,11 @@
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
     </row>
     <row r="43" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="13"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="3">
         <v>0.67499999999999993</v>
       </c>
@@ -2811,11 +2811,11 @@
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="11"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="9"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2824,11 +2824,11 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="11"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="9"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2837,11 +2837,11 @@
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="11"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="9"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2850,11 +2850,11 @@
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="11"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="9"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2863,11 +2863,11 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="11"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="9"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2876,11 +2876,11 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="11"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="9"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2889,11 +2889,11 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="11"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="9"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2902,11 +2902,11 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="11"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="9"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2915,11 +2915,11 @@
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="11"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="9"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2928,11 +2928,11 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="11"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="9"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2941,8 +2941,8 @@
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
@@ -2958,6 +2958,45 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B9"/>
@@ -2968,45 +3007,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3034,33 +3034,33 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="15" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
@@ -3076,11 +3076,11 @@
       <c r="I4" s="6">
         <v>5</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="3">
@@ -3114,7 +3114,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="3">
         <v>0.55277777777777781</v>
       </c>
@@ -3146,7 +3146,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="3">
         <v>0.55347222222222225</v>
       </c>
@@ -3178,7 +3178,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>2</v>
       </c>
       <c r="C8" s="3">
@@ -3212,7 +3212,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3">
         <v>0.56041666666666667</v>
       </c>
@@ -3244,7 +3244,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="3">
         <v>0.56111111111111112</v>
       </c>
@@ -3276,7 +3276,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>3</v>
       </c>
       <c r="C11" s="3">
@@ -3310,7 +3310,7 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3">
         <v>0.56527777777777777</v>
       </c>
@@ -3342,7 +3342,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="3">
         <v>0.56597222222222221</v>
       </c>
@@ -3374,7 +3374,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>4</v>
       </c>
       <c r="C14" s="3">
@@ -3408,7 +3408,7 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="3">
         <v>0.57777777777777783</v>
       </c>
@@ -3440,7 +3440,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="3">
         <v>0.57847222222222217</v>
       </c>
@@ -3472,7 +3472,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>5</v>
       </c>
       <c r="C17" s="3">
@@ -3506,7 +3506,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="3">
         <v>0.59097222222222223</v>
       </c>
@@ -3538,7 +3538,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="3">
         <v>0.59236111111111112</v>
       </c>
@@ -3570,7 +3570,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>6</v>
       </c>
       <c r="C20" s="3">
@@ -3604,7 +3604,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="3">
         <v>0.6</v>
       </c>
@@ -3636,7 +3636,7 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="3">
         <v>0.60138888888888886</v>
       </c>
@@ -3668,7 +3668,7 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>7</v>
       </c>
       <c r="C23" s="3">
@@ -3702,7 +3702,7 @@
       </c>
     </row>
     <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="3">
         <v>0.61111111111111105</v>
       </c>
@@ -3734,7 +3734,7 @@
       </c>
     </row>
     <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="3">
         <v>0.6118055555555556</v>
       </c>
@@ -3766,7 +3766,7 @@
       </c>
     </row>
     <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>8</v>
       </c>
       <c r="C26" s="3">
@@ -3800,7 +3800,7 @@
       </c>
     </row>
     <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="3">
         <v>0.6166666666666667</v>
       </c>
@@ -3832,7 +3832,7 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="3">
         <v>0.61736111111111114</v>
       </c>
@@ -3864,7 +3864,7 @@
       </c>
     </row>
     <row r="29" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="3"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -3876,7 +3876,7 @@
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="3"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -3900,35 +3900,35 @@
       <c r="K31" s="8"/>
     </row>
     <row r="32" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="15" t="s">
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J32" s="15" t="s">
+      <c r="J32" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="K32" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L32" s="15" t="s">
+      <c r="L32" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="7">
         <v>1</v>
       </c>
@@ -3944,13 +3944,13 @@
       <c r="H33" s="7">
         <v>5</v>
       </c>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
     </row>
     <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="16">
+      <c r="B34" s="17">
         <v>1</v>
       </c>
       <c r="C34" s="3">
@@ -3979,11 +3979,11 @@
         <f>STDEV(D34:H34)</f>
         <v>2.5495097567963922</v>
       </c>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
     </row>
     <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="16"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="3">
         <v>0.62013888888888891</v>
       </c>
@@ -4010,11 +4010,11 @@
         <f t="shared" ref="J35:J37" si="3">STDEV(D35:H35)</f>
         <v>4.6904157598234297</v>
       </c>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
     </row>
     <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="16">
+      <c r="B36" s="17">
         <v>2</v>
       </c>
       <c r="C36" s="3">
@@ -4043,11 +4043,11 @@
         <f t="shared" si="3"/>
         <v>7.3006848993775915</v>
       </c>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
     </row>
     <row r="37" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="16"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="3">
         <v>0.62916666666666665</v>
       </c>
@@ -4074,11 +4074,11 @@
         <f t="shared" si="3"/>
         <v>2.1679483388678804</v>
       </c>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
     </row>
     <row r="38" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="16">
+      <c r="B38" s="17">
         <v>3</v>
       </c>
       <c r="C38" s="3"/>
@@ -4089,11 +4089,11 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
     </row>
     <row r="39" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="16"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="3"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -4102,11 +4102,11 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
     </row>
     <row r="40" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="16">
+      <c r="B40" s="17">
         <v>4</v>
       </c>
       <c r="C40" s="3"/>
@@ -4117,11 +4117,11 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
     </row>
     <row r="41" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="16"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="3"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -4130,11 +4130,11 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
     </row>
     <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="16">
+      <c r="B42" s="17">
         <v>5</v>
       </c>
       <c r="C42" s="3"/>
@@ -4145,11 +4145,11 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
     </row>
     <row r="43" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="16"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="3"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -4158,11 +4158,11 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
     </row>
     <row r="44" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="16">
+      <c r="B44" s="17">
         <v>6</v>
       </c>
       <c r="C44" s="3"/>
@@ -4173,11 +4173,11 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
     </row>
     <row r="45" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="16"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="3"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -4186,11 +4186,11 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
     </row>
     <row r="46" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="16">
+      <c r="B46" s="17">
         <v>7</v>
       </c>
       <c r="C46" s="3"/>
@@ -4201,11 +4201,11 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
     </row>
     <row r="47" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="16"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="3"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -4214,11 +4214,11 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
     </row>
     <row r="48" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="16">
+      <c r="B48" s="17">
         <v>8</v>
       </c>
       <c r="C48" s="3"/>
@@ -4229,11 +4229,11 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
     </row>
     <row r="49" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="16"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="3"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -4242,33 +4242,18 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B46:B47"/>
@@ -4285,13 +4270,28 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
